--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4485.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4485.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1285,6 +1284,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2736,6 +2736,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -5614,525 +5615,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>17.92%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.71%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4521</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.67%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4523</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4527</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>14.17%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>16.36%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16.25%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4687</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>15.81%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>